--- a/Module 9 - Non-current Assets Intangible Assets.xlsx
+++ b/Module 9 - Non-current Assets Intangible Assets.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/FINREP Class Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F3882A8-9F92-4176-9E76-9AD36ED65710}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6A86EE-15A5-4F8F-9403-D285008E506F}"/>
   <bookViews>
-    <workbookView xWindow="-4920" yWindow="-19515" windowWidth="16200" windowHeight="11385" activeTab="1" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
+    <workbookView xWindow="-2640" yWindow="-21690" windowWidth="21600" windowHeight="12315" activeTab="5" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Module 9" sheetId="2" r:id="rId2"/>
+    <sheet name="WSE9.1" sheetId="3" r:id="rId3"/>
+    <sheet name="WSE9.2" sheetId="4" r:id="rId4"/>
+    <sheet name="WSE9.3" sheetId="5" r:id="rId5"/>
+    <sheet name="WSE9.4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
   <si>
     <t>Main</t>
   </si>
@@ -160,13 +164,304 @@
   </si>
   <si>
     <t>if HFS then do no amortise</t>
+  </si>
+  <si>
+    <t>Crown</t>
+  </si>
+  <si>
+    <t>Intangible asset criteria:</t>
+  </si>
+  <si>
+    <t>Identifiability is required to distinguish intangible assets from goodwill. If the asset is identifiable, it can be separated from goodwill and should be accounted for and disclosed as a separate asset.</t>
+  </si>
+  <si>
+    <t>An asset is identifiable if it either</t>
+  </si>
+  <si>
+    <t>Is separable – asset is capable of being separated or divided from the entity and sold, transferred, licensed, rented or exchanged, either individually or together with a related contract, identifiable asset or liability</t>
+  </si>
+  <si>
+    <t>Arises from contractual or other legal rights – Regardless of whether these rights are transferable or separate from the entity or from other rights and obligations.</t>
+  </si>
+  <si>
+    <t>The customer list meets the definition of an asset as holding the list gives control and it is assumed to generate economic benefit through the targeting of customers for related sales.</t>
+  </si>
+  <si>
+    <t>The customer list is identifiable as it is separable – it is possible to sell the list separately from the rest of the business.</t>
+  </si>
+  <si>
+    <t>The customer list is non-monetary and without physical substance and so is an intangible asset</t>
+  </si>
+  <si>
+    <t>The franchise agreement meets the definition of an asset as holding the license gives control and franchises are assumed to generate economic benefit through operating fast-food outlets.</t>
+  </si>
+  <si>
+    <t>The license is identifiable as it represents a legal right.</t>
+  </si>
+  <si>
+    <t>The franchise agreement is non-monetary and without physical substance and so is an intangible asset.</t>
+  </si>
+  <si>
+    <t>The domain for the website meets the definition of an asset as ownership of the domain gives control and it is assumed to generate economic benefit through the related advertising space.</t>
+  </si>
+  <si>
+    <t>The website is identifiable as its domain name represents a legal right.</t>
+  </si>
+  <si>
+    <t>The website is non-monetary and without physical substance and so is an intangible asset.</t>
+  </si>
+  <si>
+    <t>The sauce recipes do not meet the definition of an asset as there is no control over the recipes, despite the economic benefit generated.</t>
+  </si>
+  <si>
+    <t>The recipe for the sports drink meets the definition of an asset as the secretive nature of the recipe gives control (despite no legal protection) and it is assumed to generate economic benefit through the sale of drinks.</t>
+  </si>
+  <si>
+    <t>The recipe is identifiable as it is separable – it is assumed that it could be sold to a competitor as offers have previously been made.</t>
+  </si>
+  <si>
+    <t>The recipe is non-monetary and without physical substance and so is an intangible asset.</t>
+  </si>
+  <si>
+    <t>The customer list is non-monetary and without physical substance and so is an intangible asset.</t>
+  </si>
+  <si>
+    <t>Huggy</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>The £70,000 spent on ‘substantially improving’ an existing product falls under the definition of development expenditure.</t>
+  </si>
+  <si>
+    <t>Huggy must capitalise this expenditure and amortise it on a systematic basis over the period the product will be produced commercially if the following criteria are met:</t>
+  </si>
+  <si>
+    <t>• the project is technically feasible to be completed;</t>
+  </si>
+  <si>
+    <t>• Huggy intends to complete the project and either sell the item or use it;</t>
+  </si>
+  <si>
+    <t>• Huggy can use or sell the asset;</t>
+  </si>
+  <si>
+    <t>• Huggy can show how the asset will generate economic benefits;</t>
+  </si>
+  <si>
+    <t>• adequate technical, financial and other resources are available to enable the</t>
+  </si>
+  <si>
+    <t>completion of the project; and</t>
+  </si>
+  <si>
+    <t>• the expenditure on the project can be measured reliably.</t>
+  </si>
+  <si>
+    <t>The analysing machine is a tangible non-current asset and should be capitalised at £50k and depreciated to its residual value of £10k over its estimated useful economic life, a charge of £10k per annum.</t>
+  </si>
+  <si>
+    <t>The depreciation charge will commence when the machine is installed and ready for use.</t>
+  </si>
+  <si>
+    <t>Depreciation charge = 1/4 years x (£50k - £10k) = £10k</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>This £40,000 should be classified as research and must be written off in the year it is incurred.</t>
+  </si>
+  <si>
+    <t>However, the £30k machine should be capitalised and depreciated over its estimated useful economic life down to its residual value and depreciation will be included in the research and development expenditure.</t>
+  </si>
+  <si>
+    <t>Research and development</t>
+  </si>
+  <si>
+    <t>Expenditure on research is recognised as an expense in the P&amp;L when it occurs</t>
+  </si>
+  <si>
+    <t>Expenditure on development must be capitalised only if ALL of the criteria can be demonstrated:</t>
+  </si>
+  <si>
+    <t>- The technical feasability of completing the intangible asset so that it will be available for use or sale</t>
+  </si>
+  <si>
+    <t>- Intention to complete the intangible asset and use or sell it</t>
+  </si>
+  <si>
+    <t>- Ability to use or sell the intangible asset</t>
+  </si>
+  <si>
+    <t>- How the asset will generate probably future economic benefits</t>
+  </si>
+  <si>
+    <t>- Availability of adequate technical, financial and other resources to complete the devlopment and to use or sell the intangible asset</t>
+  </si>
+  <si>
+    <t>- Ability to measure reliably the expenditure attributable to the intangible asset during development.</t>
+  </si>
+  <si>
+    <t>Past Costs</t>
+  </si>
+  <si>
+    <t>Once expenditure has been written off to P&amp;L it remains written off, it cannot be reinstated as part of the cost of an intangible asset, although the item may then qualify as an intangible asset.</t>
+  </si>
+  <si>
+    <t>Cruickshank</t>
+  </si>
+  <si>
+    <t>Patent</t>
+  </si>
+  <si>
+    <t>The patent should be amoritsed over its 10 year useful life</t>
+  </si>
+  <si>
+    <t>Charge in year:</t>
+  </si>
+  <si>
+    <t>250/10</t>
+  </si>
+  <si>
+    <t>Dr P&amp;L Amortisation charge</t>
+  </si>
+  <si>
+    <t>Cr Accum Amortisation - patent</t>
+  </si>
+  <si>
+    <t>Being amortisation of patent</t>
+  </si>
+  <si>
+    <t>Quota</t>
+  </si>
+  <si>
+    <t>The quota is an identifiable intangible asset as it has been acquired.</t>
+  </si>
+  <si>
+    <t>The quota should be capitalised rather than expensed and amortised over its assumed 20 year useful life.</t>
+  </si>
+  <si>
+    <t>Dr Intangible asset - Quota</t>
+  </si>
+  <si>
+    <t>Cr P&amp;L Admin expenses</t>
+  </si>
+  <si>
+    <t>Amortisation:</t>
+  </si>
+  <si>
+    <t>1,000/20</t>
+  </si>
+  <si>
+    <t>Cr Accum Amortisation - quota</t>
+  </si>
+  <si>
+    <t>Being amortisation of quota</t>
+  </si>
+  <si>
+    <t>As an active market exists, the quota should be revalued and carried at evaluation.</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Accum Dep'n</t>
+  </si>
+  <si>
+    <t>Carrying amount</t>
+  </si>
+  <si>
+    <t>Fair value</t>
+  </si>
+  <si>
+    <t>Revaluation increase</t>
+  </si>
+  <si>
+    <t>Dr Intangible asset - quota</t>
+  </si>
+  <si>
+    <t>Dr Accum Dep'n</t>
+  </si>
+  <si>
+    <t>Cr revaluation surplus</t>
+  </si>
+  <si>
+    <t>Being revaluation of quota</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>The license is an identifiable intangible asset and should be capitalised at its fair value of £500k, with an accrual created for the outstanding £100k payment.</t>
+  </si>
+  <si>
+    <t>The license should be capitalised rather than expensed and amortised over its eight-year
+useful life.</t>
+  </si>
+  <si>
+    <t>Dr Intangible assets - License</t>
+  </si>
+  <si>
+    <t>Cr Accruals</t>
+  </si>
+  <si>
+    <t>Being capitalising license</t>
+  </si>
+  <si>
+    <t>Amortisation charge for period:</t>
+  </si>
+  <si>
+    <t>500 x 6/(8x12)</t>
+  </si>
+  <si>
+    <t>Dr Amortisation charge</t>
+  </si>
+  <si>
+    <t>Cr Accum Amortisation License</t>
+  </si>
+  <si>
+    <t>Being amortisation in period of license</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>The directors’ opinion does not qualify as an active market and so the brand must remain at
+amortised historic cost.</t>
+  </si>
+  <si>
+    <t>1000/20</t>
+  </si>
+  <si>
+    <t>Cr Accum Amortisation Brand</t>
+  </si>
+  <si>
+    <t>Being amortisation in period of brand</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Does not meet the definition of an asset as there is no control and therefore remains written off to P&amp;L.</t>
+  </si>
+  <si>
+    <t>Y/E 31 Dec 2016</t>
+  </si>
+  <si>
+    <t>Ceylon plc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +484,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +516,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -206,17 +524,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -543,6 +880,511 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>135491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA915345-3C63-4D69-ABF3-D062BE874FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="610914" y="30256655"/>
+          <a:ext cx="3665483" cy="1646353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>70915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBC83D9-3644-48D0-566E-108D307574AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2095500"/>
+          <a:ext cx="3657600" cy="1899715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC7BFD8-EFF4-2105-307E-A21B947AB98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="3657600" cy="491948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C99A47C-276B-C205-0BEE-619C17C35E06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6019800"/>
+          <a:ext cx="3657600" cy="924733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90526</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C15DDFC-2CB2-CEEC-A31D-F8552F7A0549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8267700"/>
+          <a:ext cx="3748126" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>101071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1279C34A-D3ED-104C-003D-385FCFF348AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11049000"/>
+          <a:ext cx="3657600" cy="1167871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>69801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC4FFE4-B318-A1DB-2996-FF77BD4A51B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12534900"/>
+          <a:ext cx="3657600" cy="1441401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF988F2-A137-4C91-9512-C58D15C7A2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="457200"/>
+          <a:ext cx="3657600" cy="1852007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2414</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FED79B-A160-42CC-89A4-71FC549A637D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2498264"/>
+          <a:ext cx="3660014" cy="5121736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8137E642-5E3C-17DC-A690-189B531FCCAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="609600"/>
+          <a:ext cx="3657600" cy="1800029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAB53C5-4ECF-EE52-6688-8EF56D07FB4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="2743200"/>
+          <a:ext cx="3657600" cy="2193101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -867,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2652354-7DBA-4672-A2B5-4CCC53B5289A}">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1078,6 +1920,86 @@
         <v>40</v>
       </c>
     </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E7DC2662-65BE-4AC6-887B-12CCEC273C0B}"/>
@@ -1086,4 +2008,1068 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB25B8C-6125-431E-B265-90DFD7A87604}">
+  <dimension ref="B2:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B03CF-C77A-41BC-8B00-90173B3A8CA6}">
+  <dimension ref="B2:H124"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>250/10</f>
+        <v>25</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6">
+        <v>25</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6">
+        <v>25</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>1000/20</f>
+        <v>50</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75"/>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76"/>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6">
+        <v>50</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
+        <v>50</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="7">
+        <f>-B75</f>
+        <v>-50</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="6">
+        <f>SUM(C83:C84)</f>
+        <v>950</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="6">
+        <f>C86-C85</f>
+        <v>450</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B88"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="6">
+        <v>400</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="6">
+        <v>50</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90"/>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6">
+        <v>450</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92"/>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94"/>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95"/>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96"/>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98"/>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="6">
+        <v>500</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99"/>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6">
+        <v>400</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100"/>
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6">
+        <v>100</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101"/>
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102"/>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103"/>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104"/>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105"/>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B106" s="8">
+        <f>500*(6/(8*12))</f>
+        <v>31.25</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106"/>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B107"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107"/>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" s="6">
+        <v>31</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108"/>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6">
+        <v>31</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109"/>
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110"/>
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B111"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111"/>
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112"/>
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113"/>
+      <c r="H113"/>
+    </row>
+    <row r="114" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B114"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114"/>
+      <c r="H114"/>
+    </row>
+    <row r="115" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115"/>
+      <c r="H115"/>
+    </row>
+    <row r="116" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116"/>
+      <c r="H116"/>
+    </row>
+    <row r="117" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f>1000/20</f>
+        <v>50</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117"/>
+      <c r="H117"/>
+    </row>
+    <row r="118" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B118"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118"/>
+      <c r="H118"/>
+    </row>
+    <row r="119" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="6">
+        <v>50</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119"/>
+      <c r="H119"/>
+    </row>
+    <row r="120" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6">
+        <v>50</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120"/>
+      <c r="H120"/>
+    </row>
+    <row r="121" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121"/>
+      <c r="H121"/>
+    </row>
+    <row r="122" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122"/>
+      <c r="H122"/>
+    </row>
+    <row r="123" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123"/>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124"/>
+      <c r="H124"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4200DC-B233-49D7-B7D5-02B27F8324AE}">
+  <dimension ref="B2:B52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6189177-6BDA-42AA-BFB6-14530D3363DF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{FE71F6E3-9E36-48B8-A2CB-342778C7EE88}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Module 9 - Non-current Assets Intangible Assets.xlsx
+++ b/Module 9 - Non-current Assets Intangible Assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6A86EE-15A5-4F8F-9403-D285008E506F}"/>
+  <xr:revisionPtr revIDLastSave="761" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4E7B89-B31D-462A-A384-8B426A0E44D4}"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="-21690" windowWidth="21600" windowHeight="12315" activeTab="5" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
+    <workbookView xWindow="7920" yWindow="-11235" windowWidth="21600" windowHeight="11160" activeTab="1" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="WSE9.2" sheetId="4" r:id="rId4"/>
     <sheet name="WSE9.3" sheetId="5" r:id="rId5"/>
     <sheet name="WSE9.4" sheetId="6" r:id="rId6"/>
+    <sheet name="WSE9.5" sheetId="7" r:id="rId7"/>
+    <sheet name="WSE9.6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="291">
   <si>
     <t>Main</t>
   </si>
@@ -451,6 +453,471 @@
   </si>
   <si>
     <t>Ceylon plc</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>depr</t>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>admin cost</t>
+  </si>
+  <si>
+    <t>prototype</t>
+  </si>
+  <si>
+    <t>buyer found</t>
+  </si>
+  <si>
+    <t>testign</t>
+  </si>
+  <si>
+    <t>cannot be written back</t>
+  </si>
+  <si>
+    <t>write back and capitalise</t>
+  </si>
+  <si>
+    <t>IA - Cost</t>
+  </si>
+  <si>
+    <t>cr - admin expenses</t>
+  </si>
+  <si>
+    <t>dr - IA cost</t>
+  </si>
+  <si>
+    <t>dr - SPL depr</t>
+  </si>
+  <si>
+    <t>cr - IA AA</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>no assessable market exists for this product.</t>
+  </si>
+  <si>
+    <t>cannot realistically expect a future economic benefit</t>
+  </si>
+  <si>
+    <t>not and IA</t>
+  </si>
+  <si>
+    <t>just a PL cost</t>
+  </si>
+  <si>
+    <t>cr - accrued income</t>
+  </si>
+  <si>
+    <t>dr - admin exp</t>
+  </si>
+  <si>
+    <t>being correction to research expense</t>
+  </si>
+  <si>
+    <t>Energy efficient kiln</t>
+  </si>
+  <si>
+    <t>This is not an intangile</t>
+  </si>
+  <si>
+    <t>need to change the classification to PPE</t>
+  </si>
+  <si>
+    <t>useful life</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>NBV</t>
+  </si>
+  <si>
+    <t>residual value</t>
+  </si>
+  <si>
+    <t>move to PPE</t>
+  </si>
+  <si>
+    <t>dr - PPE cost</t>
+  </si>
+  <si>
+    <t>cr - IA cost</t>
+  </si>
+  <si>
+    <t>reclass to PPE</t>
+  </si>
+  <si>
+    <t>no Amor charge</t>
+  </si>
+  <si>
+    <t>charge depr for ownership period</t>
+  </si>
+  <si>
+    <t>cr - PPE Ad</t>
+  </si>
+  <si>
+    <t>being 9m depr charge</t>
+  </si>
+  <si>
+    <t>Domain names</t>
+  </si>
+  <si>
+    <t>replacement asset</t>
+  </si>
+  <si>
+    <t>new cost</t>
+  </si>
+  <si>
+    <t>old name</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;at date od replacement</t>
+  </si>
+  <si>
+    <t>cr - admin exp</t>
+  </si>
+  <si>
+    <t>Internally generated brands may not be capitalised.</t>
+  </si>
+  <si>
+    <t>Development expenditure must be capitalised once the relevant criteria has been met, which appears to have happened in June 20X5.</t>
+  </si>
+  <si>
+    <t>All costs incurred prior to June 20X5 remain off to profit or loss, including those from prior years.</t>
+  </si>
+  <si>
+    <t>The £78k of expenditure incurred from June 20X5 to December 20X5 should be capitalised but not amortised until the related product is in use.</t>
+  </si>
+  <si>
+    <t>The depreciation charge on plant and machinery used in development should also be capitalised.</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <t>cr - depr charge</t>
+  </si>
+  <si>
+    <t>pre - dev stage - put to PL</t>
+  </si>
+  <si>
+    <t>being capitalisation of development expenditure</t>
+  </si>
+  <si>
+    <t>dr - Development cost</t>
+  </si>
+  <si>
+    <t>The domain name is identifiable as it has a legal right.</t>
+  </si>
+  <si>
+    <t>The domain is controlled through the legal right and generates economic benefit through revenue.</t>
+  </si>
+  <si>
+    <t>The new domain name should be capitalised and amortised, with the old domain name disposed of at a loss.</t>
+  </si>
+  <si>
+    <t>being correction to capitalise new domain name</t>
+  </si>
+  <si>
+    <t>Amor. Charge</t>
+  </si>
+  <si>
+    <t>dr - Amor. Charge</t>
+  </si>
+  <si>
+    <t>cr - IA AD</t>
+  </si>
+  <si>
+    <t>being first 12m Amor charge</t>
+  </si>
+  <si>
+    <t>disposal of old IA</t>
+  </si>
+  <si>
+    <t>proceeds</t>
+  </si>
+  <si>
+    <t>dr - SPL loss on disposal</t>
+  </si>
+  <si>
+    <t>dr - IA AA</t>
+  </si>
+  <si>
+    <t>being disposal of old domain name</t>
+  </si>
+  <si>
+    <t>WSE9.1</t>
+  </si>
+  <si>
+    <t>WSE9.2</t>
+  </si>
+  <si>
+    <t>WSE9.3</t>
+  </si>
+  <si>
+    <t>WSE9.4</t>
+  </si>
+  <si>
+    <t>WSE9.5</t>
+  </si>
+  <si>
+    <t>WSE9.6</t>
+  </si>
+  <si>
+    <t>MDB ltd</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>reval annually</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or useful life </t>
+  </si>
+  <si>
+    <t>lower of</t>
+  </si>
+  <si>
+    <t>months SL</t>
+  </si>
+  <si>
+    <t>Suckler-cow quota</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>cr - reval reserve</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>gain on reval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr - IA cost </t>
+  </si>
+  <si>
+    <t>cr - AA</t>
+  </si>
+  <si>
+    <t>cr  - reval reserve</t>
+  </si>
+  <si>
+    <t>being initial reval and allocation to reval reserve</t>
+  </si>
+  <si>
+    <t>remaining useful life</t>
+  </si>
+  <si>
+    <t>Dr - IA cost</t>
+  </si>
+  <si>
+    <t>dr - Amor. Cost</t>
+  </si>
+  <si>
+    <t>being AA in the year</t>
+  </si>
+  <si>
+    <t>being revaluation increase</t>
+  </si>
+  <si>
+    <t>Annual transfer from reval reserve to RE per policy</t>
+  </si>
+  <si>
+    <t>credit balance reserve</t>
+  </si>
+  <si>
+    <t>annual release</t>
+  </si>
+  <si>
+    <t>dr - Revaluation surplus</t>
+  </si>
+  <si>
+    <t>cr - RE</t>
+  </si>
+  <si>
+    <t>being annual transfer from revaluation surplus</t>
+  </si>
+  <si>
+    <t>Haulage division</t>
+  </si>
+  <si>
+    <t>assuming the cost of the asset has been recorded in the year of acquisition</t>
+  </si>
+  <si>
+    <t>this years requirements are to post 1 years Amor. Cost</t>
+  </si>
+  <si>
+    <t>dr - SPL Amor.</t>
+  </si>
+  <si>
+    <t>cr - License AA</t>
+  </si>
+  <si>
+    <t>the invoice was not received but we received the services, so an accrual needs to be posted</t>
+  </si>
+  <si>
+    <t>dr - advertising expense</t>
+  </si>
+  <si>
+    <t>cr - accrued expenses</t>
+  </si>
+  <si>
+    <t>being GRNI accrual</t>
+  </si>
+  <si>
+    <t>Shooting rights</t>
+  </si>
+  <si>
+    <t>dr - admin</t>
+  </si>
+  <si>
+    <t>cr - bank</t>
+  </si>
+  <si>
+    <t>shooting licence</t>
+  </si>
+  <si>
+    <t>Dev. Costs</t>
+  </si>
+  <si>
+    <t>not dev.  Just research</t>
+  </si>
+  <si>
+    <t>not market</t>
+  </si>
+  <si>
+    <t>uncertian economic benefit</t>
+  </si>
+  <si>
+    <t>pl cost</t>
+  </si>
+  <si>
+    <t>dr - research</t>
+  </si>
+  <si>
+    <t>cr - suspense</t>
+  </si>
+  <si>
+    <t>being correction for IA capitalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amor. Expense in the year. </t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Duck-down cushions</t>
+  </si>
+  <si>
+    <t>Hypo-allergenic bed linen</t>
+  </si>
+  <si>
+    <t>dev. Exp.</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;become development from here</t>
+  </si>
+  <si>
+    <t>advertising</t>
+  </si>
+  <si>
+    <t>staff training</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;cannot capitalised staff training</t>
+  </si>
+  <si>
+    <t>cr - development suspense account</t>
+  </si>
+  <si>
+    <t>being correction…</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>empty nester</t>
+  </si>
+  <si>
+    <t>an unfulfilled offer is not enough to recognise a gain on the IA attacted to the shops</t>
+  </si>
+  <si>
+    <t>cannot separate which part relates to the IA and what relates to the shops</t>
+  </si>
+  <si>
+    <t>Duck divet</t>
+  </si>
+  <si>
+    <t>IA cost</t>
+  </si>
+  <si>
+    <t>charge 2 moths amor.</t>
+  </si>
+  <si>
+    <t>cr  -bank</t>
+  </si>
+  <si>
+    <t>SPL - prepayment</t>
+  </si>
+  <si>
+    <t>amortise for another year</t>
+  </si>
+  <si>
+    <t>Dr SPL amor.</t>
+  </si>
+  <si>
+    <t>cr - rights - AD</t>
+  </si>
+  <si>
+    <t>amor from dev date</t>
+  </si>
+  <si>
+    <t>dr - advertising cost</t>
+  </si>
+  <si>
+    <t>dr - training</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;cannot capitalised advertising</t>
+  </si>
+  <si>
+    <t>dr - research exp</t>
+  </si>
+  <si>
+    <t>dr - SPL amor.</t>
+  </si>
+  <si>
+    <t>cr - dev. AA</t>
+  </si>
+  <si>
+    <t>being amor from time of dev.</t>
   </si>
 </sst>
 </file>
@@ -459,9 +926,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +974,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -516,7 +991,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -533,13 +1008,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -548,9 +1034,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1352,7 +1843,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>59501</xdr:rowOff>
+      <xdr:rowOff>59502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1685,22 +2176,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABC9AC4-C363-485A-931E-25795A89AF52}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Module 9'!A1" display="Module 9" xr:uid="{487CD55C-C080-47C0-B416-638D37CC44A5}"/>
+    <hyperlink ref="C2" location="WSE9.1!A1" display="WSE9.1" xr:uid="{13A11666-FC25-409B-A538-E6E02B5F6AF2}"/>
+    <hyperlink ref="C3" location="WSE9.2!A1" display="WSE9.2" xr:uid="{166938E2-6173-45AF-9421-E3609F9D4182}"/>
+    <hyperlink ref="C4" location="WSE9.3!A1" display="WSE9.3" xr:uid="{41E4EE26-68B7-4D61-A68F-FE8CF2E37A12}"/>
+    <hyperlink ref="C5" location="WSE9.4!A1" display="WSE9.4" xr:uid="{1BF91172-8026-4E5F-8C05-7A5183D8FFBF}"/>
+    <hyperlink ref="C6" location="WSE9.5!A1" display="WSE9.5" xr:uid="{D6E30F38-FC84-49C8-BE1A-5248457B7FCC}"/>
+    <hyperlink ref="C7" location="WSE9.6!A1" display="WSE9.6" xr:uid="{9AABF536-BA0C-40B7-9774-904417A468F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1711,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2652354-7DBA-4672-A2B5-4CCC53B5289A}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2012,1044 +2537,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB25B8C-6125-431E-B265-90DFD7A87604}">
-  <dimension ref="B2:B93"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B77" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B03CF-C77A-41BC-8B00-90173B3A8CA6}">
-  <dimension ref="B2:H124"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54"/>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <f>250/10</f>
-        <v>25</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60"/>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61"/>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6">
-        <v>25</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62"/>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
-        <v>25</v>
-      </c>
-      <c r="G63"/>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65"/>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66"/>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67"/>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68"/>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69"/>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F70" s="6"/>
-      <c r="G70"/>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G71"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72"/>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73"/>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74"/>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <f>1000/20</f>
-        <v>50</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75"/>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76"/>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6">
-        <v>50</v>
-      </c>
-      <c r="F77" s="6"/>
-      <c r="G77"/>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
-        <v>50</v>
-      </c>
-      <c r="G78"/>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79"/>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B80"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80"/>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81"/>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B82"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82"/>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C84" s="7">
-        <f>-B75</f>
-        <v>-50</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="6">
-        <f>SUM(C83:C84)</f>
-        <v>950</v>
-      </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="7">
-        <v>1400</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="6">
-        <f>C86-C85</f>
-        <v>450</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B88"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88"/>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="6">
-        <v>400</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="6">
-        <v>50</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6">
-        <v>450</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>115</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92"/>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93"/>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94"/>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95"/>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B96"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96"/>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97"/>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B98"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98"/>
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="6">
-        <v>500</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99"/>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6">
-        <v>400</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100"/>
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6">
-        <v>100</v>
-      </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101"/>
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>121</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102"/>
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B103"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103"/>
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104"/>
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105"/>
-      <c r="H105"/>
-    </row>
-    <row r="106" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B106" s="8">
-        <f>500*(6/(8*12))</f>
-        <v>31.25</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106"/>
-      <c r="H106"/>
-    </row>
-    <row r="107" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B107"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107"/>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>124</v>
-      </c>
-      <c r="C108" s="6">
-        <v>31</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108"/>
-      <c r="H108"/>
-    </row>
-    <row r="109" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6">
-        <v>31</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109"/>
-      <c r="H109"/>
-    </row>
-    <row r="110" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110"/>
-      <c r="H110"/>
-    </row>
-    <row r="111" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B111"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111"/>
-      <c r="H111"/>
-    </row>
-    <row r="112" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112"/>
-      <c r="H112"/>
-    </row>
-    <row r="113" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113"/>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B114"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114"/>
-      <c r="H114"/>
-    </row>
-    <row r="115" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>102</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115"/>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>129</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116"/>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <f>1000/20</f>
-        <v>50</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117"/>
-      <c r="H117"/>
-    </row>
-    <row r="118" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B118"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118"/>
-      <c r="H118"/>
-    </row>
-    <row r="119" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>124</v>
-      </c>
-      <c r="C119" s="6">
-        <v>50</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119"/>
-      <c r="H119"/>
-    </row>
-    <row r="120" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6">
-        <v>50</v>
-      </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120"/>
-      <c r="H120"/>
-    </row>
-    <row r="121" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>131</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121"/>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B122"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122"/>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B123" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123"/>
-      <c r="H123"/>
-    </row>
-    <row r="124" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>133</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124"/>
-      <c r="H124"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4200DC-B233-49D7-B7D5-02B27F8324AE}">
-  <dimension ref="B2:B52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6189177-6BDA-42AA-BFB6-14530D3363DF}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3063,7 +2553,1629 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5859B635-907A-4612-8423-3EADFB6A8C8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B03CF-C77A-41BC-8B00-90173B3A8CA6}">
+  <dimension ref="A1:H124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>250/10</f>
+        <v>25</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6">
+        <v>25</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6">
+        <v>25</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>1000/20</f>
+        <v>50</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75"/>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76"/>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6">
+        <v>50</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
+        <v>50</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="7">
+        <f>-B75</f>
+        <v>-50</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="6">
+        <f>SUM(C83:C84)</f>
+        <v>950</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="6">
+        <f>C86-C85</f>
+        <v>450</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B88"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="6">
+        <v>400</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="6">
+        <v>50</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90"/>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6">
+        <v>450</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92"/>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94"/>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95"/>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96"/>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98"/>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="6">
+        <v>500</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99"/>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6">
+        <v>400</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100"/>
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6">
+        <v>100</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101"/>
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102"/>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103"/>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104"/>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105"/>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B106" s="8">
+        <f>500*(6/(8*12))</f>
+        <v>31.25</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106"/>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B107"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107"/>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" s="6">
+        <v>31</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108"/>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6">
+        <v>31</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109"/>
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110"/>
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B111"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111"/>
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112"/>
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113"/>
+      <c r="H113"/>
+    </row>
+    <row r="114" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B114"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114"/>
+      <c r="H114"/>
+    </row>
+    <row r="115" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115"/>
+      <c r="H115"/>
+    </row>
+    <row r="116" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116"/>
+      <c r="H116"/>
+    </row>
+    <row r="117" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f>1000/20</f>
+        <v>50</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117"/>
+      <c r="H117"/>
+    </row>
+    <row r="118" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B118"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118"/>
+      <c r="H118"/>
+    </row>
+    <row r="119" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="6">
+        <v>50</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119"/>
+      <c r="H119"/>
+    </row>
+    <row r="120" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6">
+        <v>50</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120"/>
+      <c r="H120"/>
+    </row>
+    <row r="121" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121"/>
+      <c r="H121"/>
+    </row>
+    <row r="122" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122"/>
+      <c r="H122"/>
+    </row>
+    <row r="123" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123"/>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124"/>
+      <c r="H124"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7DD311B0-FB88-4D01-959E-FEEB3BDB9D25}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4200DC-B233-49D7-B7D5-02B27F8324AE}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9A81C3E8-486E-4F3E-8B87-AFD46BC0844A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6189177-6BDA-42AA-BFB6-14530D3363DF}">
+  <dimension ref="A1:F105"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1">
+        <f>12*20</f>
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="9">
+        <v>42004</v>
+      </c>
+      <c r="D19" s="10">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="9">
+        <v>42005</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="9">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="9">
+        <v>42186</v>
+      </c>
+      <c r="D22" s="1">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="11">
+        <f>7/12*22</f>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="13">
+        <f>+D23+D22</f>
+        <v>90.833333333333329</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="11">
+        <f>+D25</f>
+        <v>90.833333333333329</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="11">
+        <f>+D22</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="11">
+        <f>+D23</f>
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="1">
+        <f>+F40</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D48" s="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="11">
+        <f>0.3*D48</f>
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="1">
+        <f>8*12</f>
+        <v>96</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="11">
+        <f>YEARFRAC(C48,C3,0)*12</f>
+        <v>9</v>
+      </c>
+      <c r="D51" s="11">
+        <f>+C51*(D48-D49)/D50</f>
+        <v>31.040625000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="11">
+        <f>+D48-D51</f>
+        <v>441.95937500000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="1">
+        <f>+D48</f>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="1">
+        <f>+E56</f>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="11">
+        <f>+D51</f>
+        <v>31.040625000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="11">
+        <f>+E63</f>
+        <v>31.040625000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="9">
+        <v>42005</v>
+      </c>
+      <c r="D75" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="1">
+        <f>12*8</f>
+        <v>96</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="11">
+        <f>YEARFRAC(C75,C3,0)*9</f>
+        <v>9</v>
+      </c>
+      <c r="D77" s="11">
+        <f>+C77*D75/D76</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="9">
+        <v>42369</v>
+      </c>
+      <c r="D78" s="11">
+        <f>+D75-D77</f>
+        <v>9.0625</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="9">
+        <v>40909</v>
+      </c>
+      <c r="D81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="1">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="11">
+        <f>+YEARFRAC(C81,C75,0)*12</f>
+        <v>36</v>
+      </c>
+      <c r="D83" s="11">
+        <f>+C83*D81/D82</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="11">
+        <f>+D81-D83</f>
+        <v>1.6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="11">
+        <f>+D75</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F88" s="11">
+        <f>+E87</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" s="11">
+        <f>+D77</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="11">
+        <f>+E91</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="11">
+        <f>+D84</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E102" s="11">
+        <f>+D99</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E103" s="11">
+        <f>+D83</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" s="1">
+        <f>+D81</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3072,4 +4184,925 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9B923E-EFAB-4729-8584-7693B1D13616}">
+  <dimension ref="A1:G88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="1">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="9">
+        <v>40878</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="9">
+        <v>41973</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <f>+YEARFRAC(C13,C14,3)*12</f>
+        <v>36</v>
+      </c>
+      <c r="D15" s="11">
+        <f>+C15*D13/C7</f>
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="11">
+        <f>+D13-D15</f>
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="9">
+        <v>41973</v>
+      </c>
+      <c r="D17" s="11">
+        <v>25</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="11">
+        <f>+D17-D16</f>
+        <v>16.5</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <f>+D17-D13</f>
+        <v>15</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
+        <f>+D15</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
+        <f>+E20-F21</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="9">
+        <f>+C17</f>
+        <v>41973</v>
+      </c>
+      <c r="D25" s="11">
+        <v>25</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="11">
+        <f>+C7-C15</f>
+        <v>204</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="9">
+        <v>42338</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>12</v>
+      </c>
+      <c r="D28" s="11">
+        <f>+C28*D25/D26</f>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="9">
+        <f>+C25</f>
+        <v>41973</v>
+      </c>
+      <c r="D29" s="11">
+        <f>+D25-D28</f>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="9">
+        <v>42338</v>
+      </c>
+      <c r="D30" s="11">
+        <v>30</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="11">
+        <f>+D30-D29</f>
+        <v>6.470588235294116</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11">
+        <f>+D28</f>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11">
+        <f>+E33</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
+        <f>+D30-D25</f>
+        <v>5</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11">
+        <f>+D28</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="11">
+        <f>+D31</f>
+        <v>6.470588235294116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="9">
+        <f>+C29</f>
+        <v>41973</v>
+      </c>
+      <c r="C46" s="1">
+        <f>204/12</f>
+        <v>17</v>
+      </c>
+      <c r="D46" s="11">
+        <f>+F22</f>
+        <v>13.5</v>
+      </c>
+      <c r="E46" s="11">
+        <f>+D46*C28/D26</f>
+        <v>0.79411764705882348</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="11">
+        <f>+E46</f>
+        <v>0.79411764705882348</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="11">
+        <f>+E48</f>
+        <v>0.79411764705882348</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="9">
+        <v>44621</v>
+      </c>
+      <c r="D55" s="1">
+        <f>20*3</f>
+        <v>60</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D55)</f>
+        <v>=20*3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="1">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D56)</f>
+        <v>=12*5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="1">
+        <f>+D55*12/D56</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="1">
+        <f>+E61</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F67" s="1">
+        <f>+E66</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="1">
+        <f>28/7</f>
+        <v>4</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E75)</f>
+        <v>=28/7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F76" s="1">
+        <f>+E75</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F87" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B77B75F4-2A11-453F-9D24-20E2993B0CC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DE9BFB-42B7-4495-B120-030F5E246ABC}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <f>180/8</f>
+        <v>22.5</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B8)</f>
+        <v>=180/8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="1">
+        <f>+B8</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="1">
+        <f>+E10</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="9">
+        <v>42795</v>
+      </c>
+      <c r="D14" s="1">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="9">
+        <v>42826</v>
+      </c>
+      <c r="D15" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="9">
+        <v>42856</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="9">
+        <v>42887</v>
+      </c>
+      <c r="D17" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="9">
+        <v>42917</v>
+      </c>
+      <c r="D18" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="9">
+        <v>42948</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="9">
+        <v>42948</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM(D16:D18)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="1">
+        <f>+D15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="1">
+        <f>+D19</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="1">
+        <f>+D20</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="1">
+        <f>SUM(D22:D25)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="9">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="1">
+        <f>+D22*8/120</f>
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f ca="1">+_xlfn.FORMULATEXT(D30)</f>
+        <v>=+D22*8/120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="1">
+        <f>+D30</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="1">
+        <f>+E40</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="1">
+        <f>+E40*2/120</f>
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="1">
+        <f>+E46</f>
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C90D0255-C5A6-4F65-B643-B586C860CBB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>